--- a/target/classes/IMPORTAR.xlsx
+++ b/target/classes/IMPORTAR.xlsx
@@ -26,10 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>DATOS DEL ARTICULO</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>CODIGO</t>
   </si>
@@ -43,19 +40,25 @@
     <t>VENCIMIENTO</t>
   </si>
   <si>
-    <t>PRECIO_CABA</t>
-  </si>
-  <si>
-    <t>PRECIO_LISTA</t>
-  </si>
-  <si>
-    <t>PRECIO_PROMO</t>
-  </si>
-  <si>
-    <t>asdasd</t>
-  </si>
-  <si>
-    <t>dddd</t>
+    <t>Mayonesa 1kg</t>
+  </si>
+  <si>
+    <t>Mostaza 500gr</t>
+  </si>
+  <si>
+    <t>Para crear una nueva lista de precios agregar una nueva columna que comience con PRECIO_</t>
+  </si>
+  <si>
+    <t>PRECIO_AMBA</t>
+  </si>
+  <si>
+    <t>PRECIO_GENERAL</t>
+  </si>
+  <si>
+    <t>PRECIO_INTERIOR</t>
+  </si>
+  <si>
+    <t>PRECIO_VIP</t>
   </si>
 </sst>
 </file>
@@ -96,7 +99,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE2EFDA"/>
+        <fgColor theme="3" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -144,7 +147,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -517,10 +522,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -529,12 +534,14 @@
     <col min="2" max="2" width="13.5703125" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" customWidth="1"/>
     <col min="4" max="4" width="13.5703125" customWidth="1"/>
-    <col min="5" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="42" customHeight="1">
+    <row r="1" spans="1:8" ht="42" customHeight="1">
       <c r="A1" s="4" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -542,79 +549,89 @@
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
     </row>
-    <row r="2" spans="1:7" ht="14.25" customHeight="1">
+    <row r="2" spans="1:8" ht="14.25" customHeight="1">
       <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="2" customFormat="1" ht="44.25" customHeight="1">
+      <c r="A3">
+        <v>1000</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="2" customFormat="1" ht="44.25" customHeight="1">
-      <c r="A3">
-        <v>121234</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
       <c r="C3">
-        <v>432</v>
+        <v>150</v>
       </c>
       <c r="D3" s="3">
-        <v>30662</v>
+        <v>44907</v>
       </c>
       <c r="E3">
-        <v>12</v>
+        <v>150</v>
       </c>
       <c r="F3">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="G3">
         <v>2</v>
       </c>
+      <c r="H3">
+        <v>50</v>
+      </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4">
-        <v>5555</v>
+        <v>1001</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C4">
         <v>432</v>
       </c>
       <c r="D4" s="3">
-        <v>30662</v>
+        <v>44907</v>
       </c>
       <c r="E4">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="F4">
         <v>12</v>
       </c>
       <c r="G4">
         <v>2</v>
+      </c>
+      <c r="H4">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="9.8425196850393706E-2" right="9.8425196850393706E-2" top="9.8425196850393706E-2" bottom="0" header="9.8425196850393706E-2" footer="0"/>
   <pageSetup paperSize="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>

--- a/target/classes/IMPORTAR.xlsx
+++ b/target/classes/IMPORTAR.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebap\git\gestion_ng\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SOFT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="46">
   <si>
     <t>CODIGO</t>
   </si>
@@ -40,12 +41,6 @@
     <t>VENCIMIENTO</t>
   </si>
   <si>
-    <t>Mayonesa 1kg</t>
-  </si>
-  <si>
-    <t>Mostaza 500gr</t>
-  </si>
-  <si>
     <t>Para crear una nueva lista de precios agregar una nueva columna que comience con PRECIO_</t>
   </si>
   <si>
@@ -59,6 +54,117 @@
   </si>
   <si>
     <t>PRECIO_VIP</t>
+  </si>
+  <si>
+    <t>Código</t>
+  </si>
+  <si>
+    <t>Descripción</t>
+  </si>
+  <si>
+    <t>Mayonesa</t>
+  </si>
+  <si>
+    <t>192 - 8 grs Sachet Natura</t>
+  </si>
+  <si>
+    <t>20-125 c.c. Sachet Natura</t>
+  </si>
+  <si>
+    <t>12-250 c.c. Doy Pack Natura</t>
+  </si>
+  <si>
+    <t>12-500 c.c. Doy Pack Natura</t>
+  </si>
+  <si>
+    <t>8-1000 c.c. Doy Pack Natura</t>
+  </si>
+  <si>
+    <t>4-2900 c.c. Sachet Natura</t>
+  </si>
+  <si>
+    <t>CADA DIA x 3 kilos</t>
+  </si>
+  <si>
+    <t>Ketchup</t>
+  </si>
+  <si>
+    <t>4-3000 c.c. Sachet Natura</t>
+  </si>
+  <si>
+    <t>Mostaza</t>
+  </si>
+  <si>
+    <t>Salsa Golf</t>
+  </si>
+  <si>
+    <t>Aceite Girasol</t>
+  </si>
+  <si>
+    <t>12-500 c.c. Pet - NATURA</t>
+  </si>
+  <si>
+    <t>15-900 c.c. Pet - NATURA</t>
+  </si>
+  <si>
+    <t>12-1500 c.c. Pet - NATURA</t>
+  </si>
+  <si>
+    <t>6-3000 c.c. Pet - NATURA</t>
+  </si>
+  <si>
+    <t>4-5000 c.c. Pet - NATURA</t>
+  </si>
+  <si>
+    <t>FAMILIAR</t>
+  </si>
+  <si>
+    <t>GIRASOL 12 - 1500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rocio Vegetal </t>
+  </si>
+  <si>
+    <t>Girasol  12-120 grs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Natura </t>
+  </si>
+  <si>
+    <t>Oliva  12-120 grs</t>
+  </si>
+  <si>
+    <t>Aceite Natura Oliva</t>
+  </si>
+  <si>
+    <t>Clásico 6-500 c.c. - Lata</t>
+  </si>
+  <si>
+    <t>Clásico 6-1000 c.c. - Lata</t>
+  </si>
+  <si>
+    <t>Intenso 6-500 c.c. - Lata</t>
+  </si>
+  <si>
+    <t>Intenso 6-1000 c.c. - Lata</t>
+  </si>
+  <si>
+    <t>Selección 6-500 c.c. - Vidrio</t>
+  </si>
+  <si>
+    <t>Aceite Natura</t>
+  </si>
+  <si>
+    <t>Blend 15-900 c.c.</t>
+  </si>
+  <si>
+    <t>Blend 12-1500 c.c.</t>
+  </si>
+  <si>
+    <t>Categoria</t>
+  </si>
+  <si>
+    <t>CATEGORIA</t>
   </si>
 </sst>
 </file>
@@ -236,7 +342,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -522,26 +628,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.42578125" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="18" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="42" customHeight="1">
+    <row r="1" spans="1:9" ht="42" customHeight="1">
       <c r="A1" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -550,91 +657,828 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-    </row>
-    <row r="2" spans="1:8" ht="14.25" customHeight="1">
+      <c r="I1" s="4"/>
+    </row>
+    <row r="2" spans="1:9" ht="14.25" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="2" customFormat="1" ht="44.25" customHeight="1">
+    </row>
+    <row r="3" spans="1:9" s="2" customFormat="1">
       <c r="A3">
-        <v>1000</v>
+        <v>1201</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3">
-        <v>150</v>
-      </c>
-      <c r="D3" s="3">
-        <v>44907</v>
-      </c>
-      <c r="E3">
-        <v>150</v>
-      </c>
-      <c r="F3">
-        <v>120</v>
-      </c>
-      <c r="G3">
-        <v>2</v>
-      </c>
-      <c r="H3">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3"/>
+      <c r="E3" s="3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4">
-        <v>1001</v>
+        <v>1202</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4">
-        <v>432</v>
-      </c>
-      <c r="D4" s="3">
-        <v>44907</v>
-      </c>
-      <c r="E4">
-        <v>120</v>
-      </c>
-      <c r="F4">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
+        <v>1203</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
+        <v>1204</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
+        <v>1205</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
+        <v>1206</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9">
+        <v>1227</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10">
+        <v>1207</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
         <v>12</v>
       </c>
-      <c r="G4">
-        <v>2</v>
-      </c>
-      <c r="H4">
-        <v>10</v>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11">
+        <v>1208</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12">
+        <v>1209</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13">
+        <v>1210</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14">
+        <v>1211</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15">
+        <v>1212</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16">
+        <v>1213</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>1214</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>1215</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>1216</v>
+      </c>
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>1217</v>
+      </c>
+      <c r="B20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>1218</v>
+      </c>
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>1301</v>
+      </c>
+      <c r="B22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <v>1302</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>1303</v>
+      </c>
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <v>1304</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <v>1305</v>
+      </c>
+      <c r="B26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
+        <v>1332</v>
+      </c>
+      <c r="B27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
+        <v>1310</v>
+      </c>
+      <c r="B28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29">
+        <v>1311</v>
+      </c>
+      <c r="B29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30">
+        <v>1313</v>
+      </c>
+      <c r="B30" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31">
+        <v>1314</v>
+      </c>
+      <c r="B31" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32">
+        <v>1315</v>
+      </c>
+      <c r="B32" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33">
+        <v>1316</v>
+      </c>
+      <c r="B33" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34">
+        <v>1317</v>
+      </c>
+      <c r="B34" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35">
+        <v>1318</v>
+      </c>
+      <c r="B35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36">
+        <v>1319</v>
+      </c>
+      <c r="B36" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A1:I1"/>
   </mergeCells>
   <pageMargins left="9.8425196850393706E-2" right="9.8425196850393706E-2" top="9.8425196850393706E-2" bottom="0" header="9.8425196850393706E-2" footer="0"/>
   <pageSetup paperSize="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>1201</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>1202</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>1203</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>1204</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>1205</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>1206</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>1227</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>1207</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>1208</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>1209</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>1210</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>1211</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>1212</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>1213</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>1214</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>1215</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>1216</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>1217</v>
+      </c>
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>1218</v>
+      </c>
+      <c r="B20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>1301</v>
+      </c>
+      <c r="B21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>1302</v>
+      </c>
+      <c r="B22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <v>1303</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>1304</v>
+      </c>
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <v>1305</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <v>1332</v>
+      </c>
+      <c r="B26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
+        <v>1310</v>
+      </c>
+      <c r="B27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
+        <v>1311</v>
+      </c>
+      <c r="B28" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29">
+        <v>1313</v>
+      </c>
+      <c r="B29" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30">
+        <v>1314</v>
+      </c>
+      <c r="B30" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31">
+        <v>1315</v>
+      </c>
+      <c r="B31" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32">
+        <v>1316</v>
+      </c>
+      <c r="B32" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33">
+        <v>1317</v>
+      </c>
+      <c r="B33" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34">
+        <v>1318</v>
+      </c>
+      <c r="B34" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35">
+        <v>1319</v>
+      </c>
+      <c r="B35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>